--- a/bmcs_cross_section/mkappa/verification_data/yao20_yao_mobasher/figure_12/yang_2010.xlsx
+++ b/bmcs_cross_section/mkappa/verification_data/yao20_yao_mobasher/figure_12/yang_2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMB\PyCharm_workspace\bmcs_cross_section\bmcs_cross_section\mkappa\verification_data\yao20_yao_mobasher\figure_12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB15EA8-DD1B-4BB9-8750-9F391351273C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260E4614-8418-41A8-9D25-5D271EFE6F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0499BF02-FD9B-47EF-8BF5-A6F4ED192B22}"/>
   </bookViews>
@@ -93,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -101,6 +101,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,7 +426,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,497 +444,620 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>0.25742574257425732</v>
-      </c>
-      <c r="B3" s="2">
-        <v>38.490566037735846</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3.9603960396039549E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>7.5471698113207548</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="F3" s="2">
-        <v>38.522999999999996</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3.9603960396039549E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>7.1698113207547172</v>
+      <c r="A3" s="3">
+        <v>0.27857142857142858</v>
+      </c>
+      <c r="B3" s="3">
+        <v>38.867924528301884</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.4285714285714279E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7.9245283018867925</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.27857142857142858</v>
+      </c>
+      <c r="F3" s="3">
+        <v>38.867924528301884</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6.4285714285714279E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>7.9245283018867925</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>96.603773584905667</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9.9009900990098917E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>15.849056603773583</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2.1149999999999998</v>
-      </c>
-      <c r="F4" s="2">
-        <v>110.623</v>
-      </c>
-      <c r="G4" s="2">
-        <v>7.9207920792079098E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>16.981132075471695</v>
+      <c r="A4" s="3">
+        <v>2.1642857142857141</v>
+      </c>
+      <c r="B4" s="3">
+        <v>96.981132075471706</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="D4" s="3">
+        <v>16.226415094339622</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.2928571428571427</v>
+      </c>
+      <c r="F4" s="3">
+        <v>110.56603773584906</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="H4" s="3">
+        <v>17.735849056603772</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4.6336633663366342</v>
-      </c>
-      <c r="B5" s="2">
-        <v>96.603773584905667</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.15841584158415839</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="A5" s="3">
+        <v>5.0357142857142856</v>
+      </c>
+      <c r="B5" s="3">
+        <v>96.981132075471706</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.19285714285714284</v>
+      </c>
+      <c r="D5" s="3">
+        <v>25.283018867924529</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6.0214285714285714</v>
+      </c>
+      <c r="F5" s="3">
+        <v>110.56603773584906</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="H5" s="3">
         <v>24.90566037735849</v>
       </c>
-      <c r="E5" s="2">
-        <v>5.5650000000000004</v>
-      </c>
-      <c r="F5" s="2">
-        <v>110.623</v>
-      </c>
-      <c r="G5" s="2">
-        <v>9.9009900990098917E-2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>24.150943396226413</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C6" s="2">
-        <v>0.23762376237623756</v>
-      </c>
-      <c r="D6" s="2">
-        <v>33.962264150943398</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.13861386138613857</v>
-      </c>
-      <c r="H6" s="2">
-        <v>32.452830188679243</v>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3">
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="D6" s="3">
+        <v>34.339622641509436</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3">
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="H6" s="3">
+        <v>33.20754716981132</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C7" s="2">
-        <v>0.33663366336633649</v>
-      </c>
-      <c r="D7" s="2">
-        <v>40</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.19801980198019792</v>
-      </c>
-      <c r="H7" s="2">
-        <v>40.377358490566031</v>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3">
+        <v>0.38571428571428568</v>
+      </c>
+      <c r="D7" s="3">
+        <v>40.377358490566039</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3">
+        <v>0.23571428571428571</v>
+      </c>
+      <c r="H7" s="3">
+        <v>41.132075471698109</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C8" s="2">
-        <v>0.43564356435643548</v>
-      </c>
-      <c r="D8" s="2">
-        <v>46.79245283018868</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.31683168316831678</v>
-      </c>
-      <c r="H8" s="2">
-        <v>46.79245283018868</v>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="D8" s="3">
+        <v>47.169811320754718</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3">
+        <v>0.36428571428571427</v>
+      </c>
+      <c r="H8" s="3">
+        <v>47.547169811320757</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C9" s="2">
-        <v>0.63366336633663367</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3">
+        <v>0.70714285714285707</v>
+      </c>
+      <c r="D9" s="3">
         <v>52.452830188679243</v>
       </c>
-      <c r="G9" s="2">
-        <v>0.41584158415841588</v>
-      </c>
-      <c r="H9" s="2">
-        <v>54.339622641509436</v>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3">
+        <v>0.47142857142857142</v>
+      </c>
+      <c r="H9" s="3">
+        <v>54.716981132075475</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C10" s="2">
-        <v>0.79207920792079189</v>
-      </c>
-      <c r="D10" s="2">
-        <v>58.113207547169807</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.55445544554455439</v>
-      </c>
-      <c r="H10" s="2">
-        <v>60</v>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3">
+        <v>0.87857142857142856</v>
+      </c>
+      <c r="D10" s="3">
+        <v>58.490566037735846</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3">
+        <v>0.62142857142857144</v>
+      </c>
+      <c r="H10" s="3">
+        <v>60.754716981132077</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C11" s="2">
-        <v>0.95049504950495045</v>
-      </c>
-      <c r="D11" s="2">
-        <v>60.377358490566039</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.69306930693069313</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3">
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="D11" s="3">
+        <v>60.754716981132077</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H11" s="3">
+        <v>65.283018867924525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3">
+        <v>1.1785714285714286</v>
+      </c>
+      <c r="D12" s="3">
         <v>64.15094339622641</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C12" s="2">
-        <v>1.0693069306930694</v>
-      </c>
-      <c r="D12" s="2">
-        <v>63.773584905660371</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.81188118811881194</v>
-      </c>
-      <c r="H12" s="2">
-        <v>69.433962264150935</v>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H12" s="3">
+        <v>70.566037735849051</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C13" s="2">
-        <v>1.2277227722772277</v>
-      </c>
-      <c r="D13" s="2">
-        <v>66.79245283018868</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.97029702970297005</v>
-      </c>
-      <c r="H13" s="2">
-        <v>75.471698113207538</v>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="D13" s="3">
+        <v>67.169811320754718</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3">
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="H13" s="3">
+        <v>76.226415094339615</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C14" s="2">
-        <v>1.386138613861386</v>
-      </c>
-      <c r="D14" s="2">
-        <v>71.320754716981128</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1.0495049504950493</v>
-      </c>
-      <c r="H14" s="2">
-        <v>78.490566037735846</v>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3">
+        <v>1.5214285714285714</v>
+      </c>
+      <c r="D14" s="3">
+        <v>71.698113207547166</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3">
+        <v>1.1571428571428573</v>
+      </c>
+      <c r="H14" s="3">
+        <v>79.622641509433961</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C15" s="2">
-        <v>1.6039603960396041</v>
-      </c>
-      <c r="D15" s="2">
-        <v>79.245283018867923</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1.2277227722772277</v>
-      </c>
-      <c r="H15" s="2">
-        <v>86.792452830188665</v>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3">
+        <v>1.7571428571428571</v>
+      </c>
+      <c r="D15" s="3">
+        <v>79.622641509433961</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="H15" s="3">
+        <v>87.169811320754718</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C16" s="2">
-        <v>1.7425742574257423</v>
-      </c>
-      <c r="D16" s="2">
-        <v>86.79245283018868</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1.3465346534653466</v>
-      </c>
-      <c r="H16" s="2">
-        <v>92.452830188679243</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C17" s="2">
-        <v>1.9603960396039604</v>
-      </c>
-      <c r="D17" s="2">
-        <v>92.075471698113219</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1.4851485148514851</v>
-      </c>
-      <c r="H17" s="2">
-        <v>100.37735849056604</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C18" s="2">
-        <v>2.1980198019801982</v>
-      </c>
-      <c r="D18" s="2">
-        <v>94.339622641509436</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1.7821782178217824</v>
-      </c>
-      <c r="H18" s="2">
-        <v>107.16981132075472</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C19" s="2">
-        <v>2.4752475247524752</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3">
+        <v>1.907142857142857</v>
+      </c>
+      <c r="D16" s="3">
+        <v>87.169811320754718</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3">
+        <v>1.4785714285714286</v>
+      </c>
+      <c r="H16" s="3">
+        <v>92.830188679245282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3">
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="D17" s="3">
+        <v>92.452830188679258</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3">
+        <v>1.6285714285714286</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100.75471698113208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="D18" s="3">
+        <v>94.716981132075475</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3">
+        <v>1.9285714285714288</v>
+      </c>
+      <c r="H18" s="3">
+        <v>107.9245283018868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="D19" s="3">
+        <v>96.226415094339629</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3">
+        <v>2.2285714285714286</v>
+      </c>
+      <c r="H19" s="3">
+        <v>110.56603773584906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3">
+        <v>2.9357142857142855</v>
+      </c>
+      <c r="D20" s="3">
+        <v>96.226415094339629</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3">
+        <v>2.5714285714285712</v>
+      </c>
+      <c r="H20" s="3">
+        <v>113.9622641509434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3">
+        <v>3.2357142857142858</v>
+      </c>
+      <c r="D21" s="3">
+        <v>96.981132075471706</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3">
+        <v>2.7642857142857142</v>
+      </c>
+      <c r="H21" s="3">
+        <v>115.47169811320755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3">
+        <v>3.4714285714285715</v>
+      </c>
+      <c r="D22" s="3">
+        <v>96.981132075471706</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3">
+        <v>3.0428571428571427</v>
+      </c>
+      <c r="H22" s="3">
+        <v>116.22641509433963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3">
+        <v>3.7714285714285714</v>
+      </c>
+      <c r="D23" s="3">
         <v>95.84905660377359</v>
       </c>
-      <c r="G19" s="2">
-        <v>2.0396039603960392</v>
-      </c>
-      <c r="H19" s="2">
-        <v>110.18867924528303</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C20" s="2">
-        <v>2.7128712871287126</v>
-      </c>
-      <c r="D20" s="2">
-        <v>95.84905660377359</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2.3564356435643563</v>
-      </c>
-      <c r="H20" s="2">
-        <v>113.58490566037736</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C21" s="2">
-        <v>2.9504950495049505</v>
-      </c>
-      <c r="D21" s="2">
-        <v>96.226415094339629</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2.5346534653465342</v>
-      </c>
-      <c r="H21" s="2">
-        <v>114.33962264150944</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C22" s="2">
-        <v>3.1881188118811883</v>
-      </c>
-      <c r="D22" s="2">
-        <v>96.226415094339629</v>
-      </c>
-      <c r="G22" s="2">
-        <v>2.7920792079207919</v>
-      </c>
-      <c r="H22" s="2">
-        <v>115.09433962264151</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C23" s="2">
-        <v>3.4455445544554459</v>
-      </c>
-      <c r="D23" s="2">
-        <v>95.84905660377359</v>
-      </c>
-      <c r="G23" s="2">
-        <v>3.0297029702970297</v>
-      </c>
-      <c r="H23" s="2">
-        <v>115.84905660377359</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C24" s="2">
-        <v>3.7227722772277225</v>
-      </c>
-      <c r="D24" s="2">
-        <v>94.339622641509436</v>
-      </c>
-      <c r="G24" s="2">
-        <v>3.2277227722772275</v>
-      </c>
-      <c r="H24" s="2">
-        <v>116.22641509433961</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C25" s="2">
-        <v>3.9801980198019797</v>
-      </c>
-      <c r="D25" s="2">
-        <v>93.20754716981132</v>
-      </c>
-      <c r="G25" s="2">
-        <v>3.4455445544554459</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="H23" s="3">
+        <v>116.60377358490567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3">
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="D24" s="3">
+        <v>94.716981132075475</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3">
+        <v>3.5142857142857142</v>
+      </c>
+      <c r="H24" s="3">
         <v>116.98113207547169</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C26" s="2">
-        <v>4.2376237623762378</v>
-      </c>
-      <c r="D26" s="2">
-        <v>92.452830188679243</v>
-      </c>
-      <c r="G26" s="2">
-        <v>3.7623762376237622</v>
-      </c>
-      <c r="H26" s="2">
-        <v>116.60377358490565</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C27" s="2">
-        <v>4.4356435643564351</v>
-      </c>
-      <c r="D27" s="2">
-        <v>91.320754716981142</v>
-      </c>
-      <c r="G27" s="2">
-        <v>4.0396039603960396</v>
-      </c>
-      <c r="H27" s="2">
-        <v>116.22641509433961</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C28" s="2">
-        <v>4.6534653465346532</v>
-      </c>
-      <c r="D28" s="2">
-        <v>89.433962264150935</v>
-      </c>
-      <c r="G28" s="2">
-        <v>4.2574257425742577</v>
-      </c>
-      <c r="H28" s="2">
-        <v>113.20754716981132</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="G29" s="2">
-        <v>4.4356435643564351</v>
-      </c>
-      <c r="H29" s="2">
-        <v>112.0754716981132</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="G30" s="2">
-        <v>4.673267326732673</v>
-      </c>
-      <c r="H30" s="2">
-        <v>110.56603773584905</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="G31" s="2">
-        <v>4.9306930693069306</v>
-      </c>
-      <c r="H31" s="2">
-        <v>108.67924528301887</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="G32" s="2">
-        <v>5.1683168316831685</v>
-      </c>
-      <c r="H32" s="2">
-        <v>106.0377358490566</v>
-      </c>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G33" s="2">
-        <v>5.3465346534653468</v>
-      </c>
-      <c r="H33" s="2">
-        <v>102.64150943396227</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3">
+        <v>4.3285714285714283</v>
+      </c>
+      <c r="D25" s="3">
+        <v>93.584905660377359</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3">
+        <v>3.7285714285714286</v>
+      </c>
+      <c r="H25" s="3">
+        <v>117.73584905660377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3">
+        <v>4.6071428571428577</v>
+      </c>
+      <c r="D26" s="3">
+        <v>92.830188679245282</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3">
+        <v>4.0714285714285712</v>
+      </c>
+      <c r="H26" s="3">
+        <v>117.73584905660377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="3">
+        <v>4.8214285714285712</v>
+      </c>
+      <c r="D27" s="3">
+        <v>91.698113207547181</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3">
+        <v>4.3928571428571423</v>
+      </c>
+      <c r="H27" s="3">
+        <v>116.98113207547169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3">
+        <v>5.0571428571428569</v>
+      </c>
+      <c r="D28" s="3">
+        <v>89.811320754716974</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3">
+        <v>4.6071428571428577</v>
+      </c>
+      <c r="H28" s="3">
+        <v>113.9622641509434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3">
+        <v>4.8214285714285712</v>
+      </c>
+      <c r="H29" s="3">
+        <v>112.45283018867924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3">
+        <v>5.0785714285714283</v>
+      </c>
+      <c r="H30" s="3">
+        <v>110.9433962264151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3">
+        <v>5.3357142857142854</v>
+      </c>
+      <c r="H31" s="3">
+        <v>109.81132075471699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3">
+        <v>5.6142857142857139</v>
+      </c>
+      <c r="H32" s="3">
+        <v>106.79245283018868</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3">
+        <v>5.8071428571428569</v>
+      </c>
+      <c r="H33" s="3">
+        <v>103.39622641509435</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bmcs_cross_section/mkappa/verification_data/yao20_yao_mobasher/figure_12/yang_2010.xlsx
+++ b/bmcs_cross_section/mkappa/verification_data/yao20_yao_mobasher/figure_12/yang_2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMB\PyCharm_workspace\bmcs_cross_section\bmcs_cross_section\mkappa\verification_data\yao20_yao_mobasher\figure_12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260E4614-8418-41A8-9D25-5D271EFE6F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FA8932-448B-42C1-9E2B-5817670FD433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0499BF02-FD9B-47EF-8BF5-A6F4ED192B22}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="10800" windowHeight="8780" xr2:uid="{0499BF02-FD9B-47EF-8BF5-A6F4ED192B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>rho_06_exp_K</t>
+    <t>rho_06_sim_k</t>
   </si>
   <si>
-    <t>rho_06_exp_M</t>
+    <t>rho_06_exp_k</t>
   </si>
   <si>
-    <t>rho_06_sim_K</t>
+    <t>rho_09_sim_k</t>
   </si>
   <si>
-    <t>rho_06_sim_M</t>
+    <t>rho_09_exp_k</t>
   </si>
   <si>
-    <t>rho_09_exp_K</t>
+    <t>rho_06_sim_m</t>
   </si>
   <si>
-    <t>rho_09_exp_M</t>
+    <t>rho_06_exp_m</t>
   </si>
   <si>
-    <t>rho_09_sim_K</t>
+    <t>rho_09_sim_m</t>
   </si>
   <si>
-    <t>rho_09_sim_M</t>
+    <t>rho_09_exp_m</t>
   </si>
 </sst>
 </file>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC78AD2B-9C8D-42FA-A4D9-8329E63F3837}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,28 +444,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
